--- a/Data/SurveyTrackingCalendar.xlsx
+++ b/Data/SurveyTrackingCalendar.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18446883-F8E1-6A4B-BB6A-ADB2D50A7B1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3CDD97-C8D0-2446-B5E0-120EDBFF107C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32920" yWindow="3540" windowWidth="26440" windowHeight="15040" xr2:uid="{C19A8553-E830-DE48-8F7A-F28455544AB6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>Survey</t>
   </si>
@@ -196,6 +196,21 @@
   </si>
   <si>
     <t>Aug 31 - Sept 3</t>
+  </si>
+  <si>
+    <t>Survey 23</t>
+  </si>
+  <si>
+    <t>Sept 8 - Sept 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social Support, Material Hardship, Unemployment Benefits, School Reopening Questions, RISER Questions </t>
+  </si>
+  <si>
+    <t>Survey 24</t>
+  </si>
+  <si>
+    <t>Sept 14 - Sept 17</t>
   </si>
 </sst>
 </file>
@@ -550,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D45FA6A-9962-6745-879A-BF18C9670907}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -900,6 +915,31 @@
         <v>54</v>
       </c>
     </row>
+    <row r="24" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/SurveyTrackingCalendar.xlsx
+++ b/Data/SurveyTrackingCalendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3CDD97-C8D0-2446-B5E0-120EDBFF107C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8568EF1-5316-4742-AA38-69E9B5376D2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32920" yWindow="3540" windowWidth="26440" windowHeight="15040" xr2:uid="{C19A8553-E830-DE48-8F7A-F28455544AB6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
   <si>
     <t>Survey</t>
   </si>
@@ -211,6 +211,15 @@
   </si>
   <si>
     <t>Sept 14 - Sept 17</t>
+  </si>
+  <si>
+    <t>Survey 25</t>
+  </si>
+  <si>
+    <t>Sept 21 - Sept 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material Hardship, Unemployment Benefits, RISER Questions, Family Routine Questions </t>
   </si>
 </sst>
 </file>
@@ -565,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D45FA6A-9962-6745-879A-BF18C9670907}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -940,6 +949,20 @@
         <v>54</v>
       </c>
     </row>
+    <row r="26" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/SurveyTrackingCalendar.xlsx
+++ b/Data/SurveyTrackingCalendar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8568EF1-5316-4742-AA38-69E9B5376D2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F960BA75-689E-FB4E-9558-C42D623E15B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32920" yWindow="3540" windowWidth="26440" windowHeight="15040" xr2:uid="{C19A8553-E830-DE48-8F7A-F28455544AB6}"/>
+    <workbookView xWindow="35200" yWindow="4000" windowWidth="26440" windowHeight="15040" xr2:uid="{C19A8553-E830-DE48-8F7A-F28455544AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="77">
   <si>
     <t>Survey</t>
   </si>
@@ -220,6 +220,42 @@
   </si>
   <si>
     <t xml:space="preserve">Material Hardship, Unemployment Benefits, RISER Questions, Family Routine Questions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survey 26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sept 28 - Oct 1 </t>
+  </si>
+  <si>
+    <t>Survey 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survey 28 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survey 29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survey 30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oct 5 - Oct 8 </t>
+  </si>
+  <si>
+    <t>Oct 12 - Oct 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oct 20 - Oct 22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oct 26 - Oct 29 </t>
+  </si>
+  <si>
+    <t>Food insecurity, Material Hardship,  Unemployment Benefits,  RISER, Family Routine</t>
+  </si>
+  <si>
+    <t>RISER Questions, Attitudes towards COVID Vaccine, Family Conflict</t>
   </si>
 </sst>
 </file>
@@ -574,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D45FA6A-9962-6745-879A-BF18C9670907}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -963,6 +999,67 @@
         <v>64</v>
       </c>
     </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/SurveyTrackingCalendar.xlsx
+++ b/Data/SurveyTrackingCalendar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F960BA75-689E-FB4E-9558-C42D623E15B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF2F4C8-E162-4D4B-8D8D-ADE308BB98B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35200" yWindow="4000" windowWidth="26440" windowHeight="15040" xr2:uid="{C19A8553-E830-DE48-8F7A-F28455544AB6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
   <si>
     <t>Survey</t>
   </si>
@@ -256,6 +256,21 @@
   </si>
   <si>
     <t>RISER Questions, Attitudes towards COVID Vaccine, Family Conflict</t>
+  </si>
+  <si>
+    <t>Survey 31</t>
+  </si>
+  <si>
+    <t>Nov 03 - Nov 05</t>
+  </si>
+  <si>
+    <t>RISER Questions, Attitudes towards COVID Vaccine, Material Hardship, Food Insecurity</t>
+  </si>
+  <si>
+    <t>Survey 32</t>
+  </si>
+  <si>
+    <t>Nov 17 - Nov 19</t>
   </si>
 </sst>
 </file>
@@ -610,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D45FA6A-9962-6745-879A-BF18C9670907}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1060,6 +1075,31 @@
         <v>54</v>
       </c>
     </row>
+    <row r="32" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/SurveyTrackingCalendar.xlsx
+++ b/Data/SurveyTrackingCalendar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF2F4C8-E162-4D4B-8D8D-ADE308BB98B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B597703-F1F2-934B-8624-04EF55A861D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35200" yWindow="4000" windowWidth="26440" windowHeight="15040" xr2:uid="{C19A8553-E830-DE48-8F7A-F28455544AB6}"/>
+    <workbookView xWindow="35160" yWindow="3940" windowWidth="26440" windowHeight="15040" xr2:uid="{C19A8553-E830-DE48-8F7A-F28455544AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="107">
   <si>
     <t>Survey</t>
   </si>
@@ -33,9 +33,6 @@
     <t xml:space="preserve">Date Range </t>
   </si>
   <si>
-    <t>Special Topic Implemented</t>
-  </si>
-  <si>
     <t>Baseline</t>
   </si>
   <si>
@@ -180,15 +177,6 @@
     <t>Child Care - Alliance For Early Success</t>
   </si>
   <si>
-    <t xml:space="preserve">Child Care Reopening Questions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social Support, Material Hardship, Unemployment Benefits </t>
-  </si>
-  <si>
-    <t>Social Support, Material Hardship,  Unemployment Benefits, School Reopening Questions, RISER Questions</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -204,9 +192,6 @@
     <t>Sept 8 - Sept 10</t>
   </si>
   <si>
-    <t xml:space="preserve">Social Support, Material Hardship, Unemployment Benefits, School Reopening Questions, RISER Questions </t>
-  </si>
-  <si>
     <t>Survey 24</t>
   </si>
   <si>
@@ -219,9 +204,6 @@
     <t>Sept 21 - Sept 24</t>
   </si>
   <si>
-    <t xml:space="preserve">Material Hardship, Unemployment Benefits, RISER Questions, Family Routine Questions </t>
-  </si>
-  <si>
     <t xml:space="preserve">Survey 26 </t>
   </si>
   <si>
@@ -252,25 +234,170 @@
     <t xml:space="preserve">Oct 26 - Oct 29 </t>
   </si>
   <si>
-    <t>Food insecurity, Material Hardship,  Unemployment Benefits,  RISER, Family Routine</t>
-  </si>
-  <si>
-    <t>RISER Questions, Attitudes towards COVID Vaccine, Family Conflict</t>
-  </si>
-  <si>
     <t>Survey 31</t>
   </si>
   <si>
     <t>Nov 03 - Nov 05</t>
   </si>
   <si>
-    <t>RISER Questions, Attitudes towards COVID Vaccine, Material Hardship, Food Insecurity</t>
-  </si>
-  <si>
     <t>Survey 32</t>
   </si>
   <si>
     <t>Nov 17 - Nov 19</t>
+  </si>
+  <si>
+    <t>Modules / Special Topic Implemented</t>
+  </si>
+  <si>
+    <t>Survey 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survey 34 </t>
+  </si>
+  <si>
+    <t>Survey 35</t>
+  </si>
+  <si>
+    <t>Survey 36</t>
+  </si>
+  <si>
+    <t>Survey 37</t>
+  </si>
+  <si>
+    <t>Survey 38</t>
+  </si>
+  <si>
+    <t>Survey 39</t>
+  </si>
+  <si>
+    <t>Survey 40</t>
+  </si>
+  <si>
+    <t>Survey 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov 17 - Nov 19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov 22 - Nov 26 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec 1 - Dec 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec 7 - Dec 10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec 15 - Dec 17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dec 21 - Dec 24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan 5 - Jan 7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jan 11 - Jan 14 </t>
+  </si>
+  <si>
+    <t>Jan 20 - Jan 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social Support
+Material Hardship 
+Unemployment Benefits </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social Support
+Material Hardship
+Unemployment Benefits
+School Reopening 
+RISER </t>
+  </si>
+  <si>
+    <t>Child Care Reopening</t>
+  </si>
+  <si>
+    <t>Social Support
+Material Hardship
+Unemployment Benefits
+School Reopening
+RISER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material Hardship
+Unemployment Benefits
+RISER Questions
+Family Routine Questions </t>
+  </si>
+  <si>
+    <t>Food insecurity
+Material Hardship
+Unemployment Benefits
+RISER, Family Routine</t>
+  </si>
+  <si>
+    <t>RISER Questions
+Attitudes towards COVID Vaccine
+Family Conflict</t>
+  </si>
+  <si>
+    <t>RISER Questions
+Vaccines 
+Material Hardship
+Food Insecurity</t>
+  </si>
+  <si>
+    <t>Remote Learning
+Vaccines
+Holiday Plans
+RISER
+Workforce 
+Remote Work
+Food Insecurity
+Material Hardship</t>
+  </si>
+  <si>
+    <t>School Mobility
+Healthcare 
+Vaccines
+Social Support
+RISER
+Employment
+Unemployment 
+Food Insecurity
+Diapers</t>
+  </si>
+  <si>
+    <t>Grandparents 
+School Mobility 
+Remote Learning 
+RISER 
+Workforce 
+Remote Work 
+Other Hardship</t>
+  </si>
+  <si>
+    <t>Remote Learning 
+Healthcare
+RISER Module
+Employment
+Unemployment
+Food Insecurity
+Other Hardship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaccines
+Workforce
+Remote Work
+Food Insecurity
+Other Hardship </t>
+  </si>
+  <si>
+    <t>Survey 42</t>
+  </si>
+  <si>
+    <t>Jan 25 - Jan 28</t>
   </si>
 </sst>
 </file>
@@ -625,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D45FA6A-9962-6745-879A-BF18C9670907}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,458 +773,583 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B26" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>64</v>
+      <c r="C26" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>71</v>
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SurveyTrackingCalendar.xlsx
+++ b/Data/SurveyTrackingCalendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B597703-F1F2-934B-8624-04EF55A861D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9A5A91-87C1-E643-ADC8-E32B4D975072}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35160" yWindow="3940" windowWidth="26440" windowHeight="15040" xr2:uid="{C19A8553-E830-DE48-8F7A-F28455544AB6}"/>
+    <workbookView xWindow="34400" yWindow="-340" windowWidth="26440" windowHeight="15040" xr2:uid="{C19A8553-E830-DE48-8F7A-F28455544AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,11 +433,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,18 +756,18 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A9" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -783,7 +784,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B2" t="s">
@@ -794,7 +795,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B3" t="s">
@@ -808,7 +809,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B4" t="s">
@@ -819,7 +820,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B5" t="s">
@@ -833,7 +834,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B6" t="s">
@@ -844,7 +845,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B7" t="s">
@@ -858,7 +859,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B8" t="s">
@@ -869,7 +870,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B9" t="s">
@@ -883,7 +884,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B10" t="s">
@@ -894,7 +895,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B11" t="s">
@@ -908,7 +909,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B12" t="s">
@@ -919,7 +920,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B13" t="s">
@@ -933,7 +934,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B14" t="s">
@@ -944,7 +945,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B15" t="s">
@@ -958,7 +959,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B16" t="s">
@@ -969,7 +970,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B17" t="s">
@@ -983,7 +984,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B18" t="s">
@@ -994,7 +995,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B19" t="s">
@@ -1008,7 +1009,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B20" t="s">
@@ -1019,7 +1020,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B21" t="s">
@@ -1033,7 +1034,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B22" t="s">
@@ -1044,7 +1045,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
@@ -1061,7 +1062,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -1072,7 +1073,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B25" t="s">
@@ -1086,7 +1087,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B26" t="s">
@@ -1097,7 +1098,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B27" t="s">
@@ -1111,7 +1112,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B28" t="s">
@@ -1128,7 +1129,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B29" t="s">
@@ -1145,7 +1146,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B30" t="s">
@@ -1159,7 +1160,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B31" t="s">
@@ -1176,7 +1177,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B32" t="s">
@@ -1190,7 +1191,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B33" t="s">
@@ -1207,7 +1208,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B34" t="s">
@@ -1224,7 +1225,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B35" t="s">
@@ -1241,7 +1242,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B36" t="s">
@@ -1258,7 +1259,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B37" t="s">
@@ -1272,7 +1273,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B38" t="s">
@@ -1286,7 +1287,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B39" t="s">
@@ -1300,7 +1301,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B40" t="s">
@@ -1314,7 +1315,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B41" t="s">
@@ -1328,7 +1329,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B42" t="s">
@@ -1342,7 +1343,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B43" t="s">

--- a/Data/SurveyTrackingCalendar.xlsx
+++ b/Data/SurveyTrackingCalendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9A5A91-87C1-E643-ADC8-E32B4D975072}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A778DE2E-35A8-9F43-B8F6-AED8695CE136}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="-340" windowWidth="26440" windowHeight="15040" xr2:uid="{C19A8553-E830-DE48-8F7A-F28455544AB6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="112">
   <si>
     <t>Survey</t>
   </si>
@@ -398,6 +398,26 @@
   </si>
   <si>
     <t>Jan 25 - Jan 28</t>
+  </si>
+  <si>
+    <t>Survey 44</t>
+  </si>
+  <si>
+    <t>Survey 43</t>
+  </si>
+  <si>
+    <t>Feb 2 - Feb 4</t>
+  </si>
+  <si>
+    <t>Feb 9 - Feb 11</t>
+  </si>
+  <si>
+    <t>Social Support
+Healthcare
+Vaccines
+RISER
+Unemployment
+Stimulus</t>
   </si>
 </sst>
 </file>
@@ -753,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D45FA6A-9962-6745-879A-BF18C9670907}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A9" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -785,60 +805,60 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
         <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
@@ -846,149 +866,149 @@
     </row>
     <row r="7" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
         <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="119" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
         <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
         <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
         <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
         <v>50</v>
@@ -996,49 +1016,49 @@
     </row>
     <row r="19" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
         <v>50</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
         <v>50</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
         <v>50</v>
@@ -1046,125 +1066,119 @@
     </row>
     <row r="23" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
         <v>50</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
       </c>
       <c r="D25" t="s">
         <v>50</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>42</v>
       </c>
-      <c r="C26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>41</v>
       </c>
-      <c r="C27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>40</v>
       </c>
-      <c r="C28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
         <v>50</v>
@@ -1173,15 +1187,15 @@
         <v>50</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
         <v>50</v>
@@ -1192,10 +1206,10 @@
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
         <v>50</v>
@@ -1204,32 +1218,29 @@
         <v>50</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
         <v>50</v>
       </c>
       <c r="D34" t="s">
         <v>50</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
@@ -1243,55 +1254,61 @@
     </row>
     <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>32</v>
       </c>
-      <c r="C36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C39" t="s">
         <v>50</v>
@@ -1302,10 +1319,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
         <v>50</v>
@@ -1316,10 +1333,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
         <v>50</v>
@@ -1330,10 +1347,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C42" t="s">
         <v>50</v>
@@ -1344,12 +1361,40 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B45" t="s">
         <v>25</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C45" t="s">
         <v>50</v>
       </c>
     </row>

--- a/Data/SurveyTrackingCalendar.xlsx
+++ b/Data/SurveyTrackingCalendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A778DE2E-35A8-9F43-B8F6-AED8695CE136}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EFD0E5-C414-9040-8EF1-6CDEE131884E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="-340" windowWidth="26440" windowHeight="15040" xr2:uid="{C19A8553-E830-DE48-8F7A-F28455544AB6}"/>
   </bookViews>
@@ -378,15 +378,6 @@
 Other Hardship</t>
   </si>
   <si>
-    <t>Remote Learning 
-Healthcare
-RISER Module
-Employment
-Unemployment
-Food Insecurity
-Other Hardship</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vaccines
 Workforce
 Remote Work
@@ -416,8 +407,18 @@
 Healthcare
 Vaccines
 RISER
+Employment
 Unemployment
 Stimulus</t>
+  </si>
+  <si>
+    <t>Remote Learning 
+Healthcare
+RISER
+Employment
+Unemployment
+Food Insecurity
+Other Hardship</t>
   </si>
 </sst>
 </file>
@@ -776,7 +777,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -805,35 +806,35 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
         <v>105</v>
-      </c>
-      <c r="B4" t="s">
-        <v>106</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
@@ -850,7 +851,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -875,7 +876,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">

--- a/Data/SurveyTrackingCalendar.xlsx
+++ b/Data/SurveyTrackingCalendar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EFD0E5-C414-9040-8EF1-6CDEE131884E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB952ED-30F2-1847-81CF-E998C2F8FB88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34400" yWindow="-340" windowWidth="26440" windowHeight="15040" xr2:uid="{C19A8553-E830-DE48-8F7A-F28455544AB6}"/>
+    <workbookView xWindow="8400" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{C19A8553-E830-DE48-8F7A-F28455544AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="154">
   <si>
     <t>Survey</t>
   </si>
@@ -303,59 +303,12 @@
     <t>Jan 20 - Jan 22</t>
   </si>
   <si>
-    <t xml:space="preserve">Social Support
-Material Hardship 
-Unemployment Benefits </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social Support
-Material Hardship
-Unemployment Benefits
-School Reopening 
-RISER </t>
-  </si>
-  <si>
     <t>Child Care Reopening</t>
-  </si>
-  <si>
-    <t>Social Support
-Material Hardship
-Unemployment Benefits
-School Reopening
-RISER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Material Hardship
-Unemployment Benefits
-RISER Questions
-Family Routine Questions </t>
-  </si>
-  <si>
-    <t>Food insecurity
-Material Hardship
-Unemployment Benefits
-RISER, Family Routine</t>
   </si>
   <si>
     <t>RISER Questions
 Attitudes towards COVID Vaccine
 Family Conflict</t>
-  </si>
-  <si>
-    <t>RISER Questions
-Vaccines 
-Material Hardship
-Food Insecurity</t>
-  </si>
-  <si>
-    <t>Remote Learning
-Vaccines
-Holiday Plans
-RISER
-Workforce 
-Remote Work
-Food Insecurity
-Material Hardship</t>
   </si>
   <si>
     <t>School Mobility
@@ -369,22 +322,6 @@
 Diapers</t>
   </si>
   <si>
-    <t>Grandparents 
-School Mobility 
-Remote Learning 
-RISER 
-Workforce 
-Remote Work 
-Other Hardship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaccines
-Workforce
-Remote Work
-Food Insecurity
-Other Hardship </t>
-  </si>
-  <si>
     <t>Survey 42</t>
   </si>
   <si>
@@ -412,23 +349,268 @@
 Stimulus</t>
   </si>
   <si>
+    <t>Survey 52</t>
+  </si>
+  <si>
+    <t>Survey 51</t>
+  </si>
+  <si>
+    <t>Survey 50</t>
+  </si>
+  <si>
+    <t>Survey 49</t>
+  </si>
+  <si>
+    <t>Survey 48</t>
+  </si>
+  <si>
+    <t>Survey 47</t>
+  </si>
+  <si>
+    <t>Survey 46</t>
+  </si>
+  <si>
+    <t>Survey 45</t>
+  </si>
+  <si>
+    <t>Survey 57</t>
+  </si>
+  <si>
+    <t>Survey 56</t>
+  </si>
+  <si>
+    <t>Survey 55</t>
+  </si>
+  <si>
+    <t>Survey 54</t>
+  </si>
+  <si>
+    <t>Survey 53</t>
+  </si>
+  <si>
+    <t>Feb 17 - Feb 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feb 25 - Feb 26 </t>
+  </si>
+  <si>
+    <t>March 2 - March 5</t>
+  </si>
+  <si>
+    <t>March 8 - March 13</t>
+  </si>
+  <si>
+    <t>March 17 - March 20</t>
+  </si>
+  <si>
+    <t>March 23 - March 25</t>
+  </si>
+  <si>
+    <t>March 31 - April 2</t>
+  </si>
+  <si>
+    <t>April 5 - April 9</t>
+  </si>
+  <si>
+    <t>April 14 - April 16</t>
+  </si>
+  <si>
+    <t>April 19 - April 22</t>
+  </si>
+  <si>
+    <t>April 28 - May 1</t>
+  </si>
+  <si>
+    <t>May 2 - May 7</t>
+  </si>
+  <si>
+    <t>May 12 - May 14</t>
+  </si>
+  <si>
+    <t>Healthcare
+RISER
+Employment
+Unemployment
+Workforce</t>
+  </si>
+  <si>
+    <t>School Reopening Spring 2021
+Healthcare
+RISER
+Employment
+Unemployment
+Stimulus</t>
+  </si>
+  <si>
+    <t>Child Social Interactions
+Family Conflict
+Family Routine
+Healthcare
+RISER
+Employment
+Unemployment
+Debt and Overdue Bills</t>
+  </si>
+  <si>
+    <t>Survey 61</t>
+  </si>
+  <si>
+    <t>Survey 60</t>
+  </si>
+  <si>
+    <t>Survey 59</t>
+  </si>
+  <si>
+    <t>Survey 58</t>
+  </si>
+  <si>
+    <t>May 17 - May 21</t>
+  </si>
+  <si>
+    <t>June 1 - June 3</t>
+  </si>
+  <si>
+    <t>June 9 - June 11</t>
+  </si>
+  <si>
+    <t>Child Social Interactions
+Healthcare
+Pregnancy &amp; Post-Partum
+Social Support
+RISER
+Employment
+Unemployment
+Economic Stability</t>
+  </si>
+  <si>
+    <t>Vaccines
+Remote Work
+Debt and Overdue Bills
+Food Insecurity
+Other Hardships
+Economic Stability
+Stimulus</t>
+  </si>
+  <si>
+    <t>Vaccines
+Social Support
+Remote Work
+Workforce
+Debt and Overdue Bills
+Food Insecurity
+Other Hardships</t>
+  </si>
+  <si>
+    <t>Vaccines
+Remote Work
+Workforce
+Food Insecurity
+Other Hardships</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family Routines
+Vaccines
+Stimulus
+Workforce
+Remote Work
+Food Insecurity
+Other Hardships
+</t>
+  </si>
+  <si>
+    <t>Vaccines
+Workforce
+Remote Work
+Food Insecurity
+Other Hardships</t>
+  </si>
+  <si>
     <t>Remote Learning 
 Healthcare
 RISER
 Employment
 Unemployment
 Food Insecurity
-Other Hardship</t>
+Other Hardships</t>
+  </si>
+  <si>
+    <t>Grandparents 
+School Mobility 
+Remote Learning 
+RISER 
+Workforce 
+Remote Work 
+Other Hardships</t>
+  </si>
+  <si>
+    <t>Remote Learning
+Vaccines
+Holiday Plans
+RISER
+Workforce 
+Remote Work
+Food Insecurity
+Other Hardships</t>
+  </si>
+  <si>
+    <t>RISER Questions
+Vaccines 
+Other Hardships
+Food Insecurity</t>
+  </si>
+  <si>
+    <t>Food insecurity
+Other Hardships
+Unemployment Benefits
+RISER, Family Routine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Hardships
+Unemployment Benefits
+RISER Questions
+Family Routine Questions </t>
+  </si>
+  <si>
+    <t>Social Support
+Other Hardships
+Unemployment Benefits
+School Reopening
+RISER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social Support
+Other Hardships
+Unemployment Benefits
+School Reopening 
+RISER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social Support
+Other Hardships
+Unemployment Benefits </t>
+  </si>
+  <si>
+    <t>School Reopening Spring 2021 Vaccine
+Child Tax Credit
+Debt and Overdue Bills
+Food Insecurity
+Other Hardships</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -774,16 +956,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D45FA6A-9962-6745-879A-BF18C9670907}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -804,602 +986,817 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="B18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B22" t="s">
         <v>91</v>
       </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B23" t="s">
         <v>90</v>
       </c>
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B24" t="s">
         <v>89</v>
       </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="D24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B25" t="s">
         <v>88</v>
       </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B26" t="s">
         <v>87</v>
       </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B27" t="s">
         <v>86</v>
       </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B28" t="s">
         <v>85</v>
       </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" t="s">
-        <v>50</v>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
         <v>50</v>
       </c>
-      <c r="D29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
         <v>50</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
         <v>50</v>
       </c>
-      <c r="D31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E32" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
         <v>50</v>
       </c>
-      <c r="D33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D34" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E34" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
       </c>
-      <c r="D35" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
         <v>50</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
       </c>
-      <c r="D37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D38" t="s">
         <v>50</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
         <v>50</v>
       </c>
-      <c r="D39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
         <v>50</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
         <v>50</v>
       </c>
-      <c r="D41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
         <v>50</v>
       </c>
       <c r="D42" t="s">
         <v>50</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
       </c>
-      <c r="D43" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
         <v>50</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>50</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B62" t="s">
         <v>25</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C62" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/SurveyTrackingCalendar.xlsx
+++ b/Data/SurveyTrackingCalendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB952ED-30F2-1847-81CF-E998C2F8FB88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5142F8B0-CDC0-F341-AE09-48E3A94FFE07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{C19A8553-E830-DE48-8F7A-F28455544AB6}"/>
+    <workbookView xWindow="2940" yWindow="3080" windowWidth="28800" windowHeight="17540" xr2:uid="{C19A8553-E830-DE48-8F7A-F28455544AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="166">
   <si>
     <t>Survey</t>
   </si>
@@ -595,6 +595,50 @@
 Debt and Overdue Bills
 Food Insecurity
 Other Hardships</t>
+  </si>
+  <si>
+    <t>Survey 62</t>
+  </si>
+  <si>
+    <t>Survey 63</t>
+  </si>
+  <si>
+    <t>Survey 64</t>
+  </si>
+  <si>
+    <t>Survey 65</t>
+  </si>
+  <si>
+    <t>Survey 66</t>
+  </si>
+  <si>
+    <t>School Reopening Spring 2021
+Healthcare
+RISER
+Child Tax Credit
+Economic Stability</t>
+  </si>
+  <si>
+    <t>Family Conflict
+Vaccine
+Child Tax Credit
+Food Insecurity
+Other Hardships</t>
+  </si>
+  <si>
+    <t>June 14 - June 17</t>
+  </si>
+  <si>
+    <t>June 23 - June 25</t>
+  </si>
+  <si>
+    <t>June 27 - July 1</t>
+  </si>
+  <si>
+    <t>July 7 - July 9</t>
+  </si>
+  <si>
+    <t>July 12 - July 15</t>
   </si>
 </sst>
 </file>
@@ -956,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D45FA6A-9962-6745-879A-BF18C9670907}">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -986,579 +1030,573 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" t="s">
         <v>137</v>
       </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B8" t="s">
         <v>136</v>
       </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B10" t="s">
         <v>135</v>
       </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B11" t="s">
         <v>127</v>
       </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B12" t="s">
         <v>126</v>
       </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B13" t="s">
         <v>125</v>
       </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B14" t="s">
         <v>124</v>
       </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B15" t="s">
         <v>123</v>
       </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B16" t="s">
         <v>122</v>
       </c>
-      <c r="C11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B17" t="s">
         <v>121</v>
       </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B18" t="s">
         <v>120</v>
       </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B19" t="s">
         <v>119</v>
       </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B20" t="s">
         <v>118</v>
       </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B21" t="s">
         <v>117</v>
       </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B22" t="s">
         <v>116</v>
       </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B23" t="s">
         <v>115</v>
       </c>
-      <c r="D18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B24" t="s">
         <v>100</v>
       </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B25" t="s">
         <v>99</v>
       </c>
-      <c r="D20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="D25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B26" t="s">
         <v>96</v>
       </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B27" t="s">
         <v>91</v>
       </c>
-      <c r="D22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="D27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B28" t="s">
         <v>90</v>
       </c>
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B29" t="s">
         <v>89</v>
       </c>
-      <c r="D24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B30" t="s">
         <v>88</v>
       </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="C30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B31" t="s">
         <v>87</v>
       </c>
-      <c r="D26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B32" t="s">
         <v>86</v>
       </c>
-      <c r="C27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B33" t="s">
         <v>85</v>
       </c>
-      <c r="D28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B34" t="s">
         <v>84</v>
       </c>
-      <c r="C29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B35" t="s">
         <v>83</v>
       </c>
-      <c r="D30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B36" t="s">
         <v>72</v>
       </c>
-      <c r="C31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B37" t="s">
         <v>70</v>
       </c>
-      <c r="D32" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B38" t="s">
         <v>68</v>
       </c>
-      <c r="C33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B39" t="s">
         <v>67</v>
       </c>
-      <c r="D34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B40" t="s">
         <v>66</v>
       </c>
-      <c r="C35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B41" t="s">
         <v>65</v>
       </c>
-      <c r="D36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="D41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B42" t="s">
         <v>60</v>
       </c>
-      <c r="C37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B43" t="s">
         <v>58</v>
       </c>
-      <c r="D38" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="D43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B44" t="s">
         <v>56</v>
       </c>
-      <c r="C39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B45" t="s">
         <v>54</v>
       </c>
-      <c r="D40" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="1" t="s">
+      <c r="D45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
         <v>50</v>
       </c>
-      <c r="D46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
         <v>50</v>
@@ -1567,63 +1605,51 @@
         <v>50</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
       </c>
-      <c r="D48" t="s">
-        <v>50</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D49" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E49" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C50" t="s">
         <v>50</v>
-      </c>
-      <c r="D50" t="s">
-        <v>50</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s">
         <v>50</v>
@@ -1634,10 +1660,10 @@
     </row>
     <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C52" t="s">
         <v>50</v>
@@ -1651,10 +1677,10 @@
     </row>
     <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C53" t="s">
         <v>50</v>
@@ -1663,32 +1689,29 @@
         <v>50</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
         <v>50</v>
       </c>
       <c r="D54" t="s">
         <v>50</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C55" t="s">
         <v>50</v>
@@ -1697,15 +1720,15 @@
         <v>50</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
         <v>50</v>
@@ -1714,12 +1737,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C57" t="s">
         <v>50</v>
@@ -1727,13 +1750,16 @@
       <c r="D57" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E57" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
         <v>50</v>
@@ -1741,13 +1767,16 @@
       <c r="D58" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E58" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C59" t="s">
         <v>50</v>
@@ -1755,27 +1784,33 @@
       <c r="D59" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E59" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C60" t="s">
         <v>50</v>
       </c>
       <c r="D60" t="s">
         <v>50</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C61" t="s">
         <v>50</v>
@@ -1786,12 +1821,82 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B67" t="s">
         <v>25</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C67" t="s">
         <v>50</v>
       </c>
     </row>
